--- a/biology/Médecine/Abraham_J._Twerski/Abraham_J._Twerski.xlsx
+++ b/biology/Médecine/Abraham_J._Twerski/Abraham_J._Twerski.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Abraham Joshua Twerski, né le 6 octobre 1930 à Milwaukee, Wisconsin, États-Unis et mort le 31 janvier 2021[1], est un psychiatre et un rabbin hassidique américain. Il est auteur de nombreux ouvrages sur le hassidisme, l'accoutumance, et la toxicomanie. Il est l'auteur de plus de 60 ouvrages sur le judaïsme et sur les efforts personnels (Self-help).
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Abraham Joshua Twerski, né le 6 octobre 1930 à Milwaukee, Wisconsin, États-Unis et mort le 31 janvier 2021, est un psychiatre et un rabbin hassidique américain. Il est auteur de nombreux ouvrages sur le hassidisme, l'accoutumance, et la toxicomanie. Il est l'auteur de plus de 60 ouvrages sur le judaïsme et sur les efforts personnels (Self-help).
 </t>
         </is>
       </c>
@@ -511,50 +523,159 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Abraham Joshua Twerski est né le 6 octobre 1930 à Milwaukee, Wisconsin, États-Unis. Il est le fils du Grand-rabbin Jacob Israël Twerski, né à Hornosteipel (Hornostaipil), de la dynastie hassidique de Tchernobyl [2], en Ukraine et de Dvorah Leah Twerski, dont le père était le deuxième rabbin de la dynastie de Bobov.
-Formation
-Abraham J. Twerski étudie à l'école publique à Milwaukee et finit ses études secondaires au North Division High School en 1948. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Abraham Joshua Twerski est né le 6 octobre 1930 à Milwaukee, Wisconsin, États-Unis. Il est le fils du Grand-rabbin Jacob Israël Twerski, né à Hornosteipel (Hornostaipil), de la dynastie hassidique de Tchernobyl , en Ukraine et de Dvorah Leah Twerski, dont le père était le deuxième rabbin de la dynastie de Bobov.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Abraham_J._Twerski</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Abraham_J._Twerski</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Formation</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Abraham J. Twerski étudie à l'école publique à Milwaukee et finit ses études secondaires au North Division High School en 1948. 
 Il fait ses études rabbiniques au Hebrew Theological de Chicago (qui est localisé aujourd'hui à Skokie, dans l'Illinois) et obtient son diplôme de rabbin en 1951.
 Abraham J. Twerski s'inscrit ensuite à l'Université Marquette de Milwaukee, où il obtient en 1960 son diplôme de médecin.
-Médecin
-Abraham J. Twerski s'installe en 1960 à Pittsburgh, en Pennsylvanie, où il pratique la médecine. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Abraham_J._Twerski</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Abraham_J._Twerski</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Médecin</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Abraham J. Twerski s'installe en 1960 à Pittsburgh, en Pennsylvanie, où il pratique la médecine. 
 Il fonde le Gateway Rehabilitation Center à Pittsburgh, dont il est le directeur médical émérite.
 Abraham J. Twerski est directeur clinique du département de psychiatrie du St. Francis Hospital de Pittsburgh.
 Il est professeur associé de psychiatrie à la Faculté de Médecine de l'Université de Pittsburgh.
 Il fonde également le Shaar Hatikvah rehabilitation center for prisoners en Israël.
-Rabbin
-Abraham Twerski partage avec son père la direction spirituelle de la Congregation Beth Jehuda, de Milwaukee,  de 1951 à 1959.
 </t>
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>Abraham_J._Twerski</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Médecine/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Abraham_J._Twerski</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Rabbin</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Abraham Twerski partage avec son père la direction spirituelle de la Congregation Beth Jehuda, de Milwaukee,  de 1951 à 1959.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Abraham_J._Twerski</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Abraham_J._Twerski</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
         <is>
           <t>Ouvrages</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>En Anglais:
 Like Yourself: And Others Will, Too, Prentice Hall, 1978, 1986.
@@ -595,7 +716,7 @@
 Forgiveness: Don't Let Resentment Keep You Captive, Shaar Press/ArtScroll Mesorah Publications: New York, 2012.
 Effective Living: An Upbeat and Uplifting Life Can Be Yours, Shaar Press/ArtScroll Mesorah Publications: New York, 2014.
 En Français:
-L'art de bien vivre formulé par la Torah, 2016[3].</t>
+L'art de bien vivre formulé par la Torah, 2016.</t>
         </is>
       </c>
     </row>
